--- a/output/fit_clients/fit_round_227.xlsx
+++ b/output/fit_clients/fit_round_227.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2348330871.269983</v>
+        <v>2119321774.529065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1119401718743278</v>
+        <v>0.07114923549045535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034582390787282</v>
+        <v>0.02847191217006056</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1174165478.137704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1664215753.030715</v>
+        <v>1806376951.348503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.149650658710409</v>
+        <v>0.1512979101390317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04919139377744397</v>
+        <v>0.03308700129043957</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>832107864.5567962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4794850841.093067</v>
+        <v>3885396160.099461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1292612473442654</v>
+        <v>0.1292641889816556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03061054122406628</v>
+        <v>0.03076274029453685</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>82</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2397425491.024891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2947050773.514016</v>
+        <v>3567001928.261675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1088656652661148</v>
+        <v>0.09046327474921564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04095175681189706</v>
+        <v>0.03697536292328982</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1473525460.106151</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2173260468.78278</v>
+        <v>1940945037.477863</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1446221586682374</v>
+        <v>0.1239621679502902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04501433184453957</v>
+        <v>0.04764236738395381</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1086630245.222902</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2752860271.394358</v>
+        <v>2043038649.405104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09396012209441468</v>
+        <v>0.0646931552523696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03235592905009367</v>
+        <v>0.03491407919665142</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>70</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1376430124.340805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2883895860.072108</v>
+        <v>3050990671.74239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1542418586250078</v>
+        <v>0.2182479229450998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02237162378088468</v>
+        <v>0.02934957831090506</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1441947975.667516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1478331444.192749</v>
+        <v>2108377694.927574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1807217967962102</v>
+        <v>0.1844168696695365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02945326380412447</v>
+        <v>0.0328457982350453</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>739165821.0644951</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4486277033.906886</v>
+        <v>4637052900.887351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1345039224125377</v>
+        <v>0.1606304494853799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04711711798523222</v>
+        <v>0.04026303354219694</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2243138576.509859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2896360588.231638</v>
+        <v>4002762375.581573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1770118436995368</v>
+        <v>0.1700835473347385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03137749394099539</v>
+        <v>0.04127158352129503</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>94</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1448180229.861963</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2850179756.088048</v>
+        <v>2681628456.529571</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1589605434294905</v>
+        <v>0.1798808274556914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05229135990861287</v>
+        <v>0.03681169518259367</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>78</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1425089882.323764</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4491436598.328297</v>
+        <v>3301561327.927683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.098047241785402</v>
+        <v>0.07819838914746553</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02227570382401456</v>
+        <v>0.02447391330338272</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>76</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2245718329.119519</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2789044894.771369</v>
+        <v>3232621700.143182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1511452525011691</v>
+        <v>0.1495359700450513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03769411822102749</v>
+        <v>0.04415761664441666</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1394522497.078335</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1411220471.037047</v>
+        <v>1777620253.040026</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0868555383199741</v>
+        <v>0.07461125506865894</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03798414651824954</v>
+        <v>0.03009347227175164</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>705610300.8789378</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2205535278.869585</v>
+        <v>1870468407.327425</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1050177576067207</v>
+        <v>0.1059210746359489</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03185556470958428</v>
+        <v>0.04471443452743958</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1102767696.547414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4075080876.261147</v>
+        <v>4013235891.920822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198738416398033</v>
+        <v>0.1082040710733594</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04477453408808704</v>
+        <v>0.04330005882054704</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2037540469.028387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3413525499.975727</v>
+        <v>3921126091.618374</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1515912494845347</v>
+        <v>0.1841766954104979</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03344629047563439</v>
+        <v>0.03024227733998176</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>74</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1706762750.345414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1223846694.568928</v>
+        <v>1282266058.820825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1315506606132054</v>
+        <v>0.1251602687215694</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02279150797460239</v>
+        <v>0.02551591242843008</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>611923430.9761429</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1923500373.516654</v>
+        <v>1803371798.930598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1150271322636242</v>
+        <v>0.140990009839682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02901920519357885</v>
+        <v>0.0230903279134445</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>961750221.2480592</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2490677069.085789</v>
+        <v>2205749698.264831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08324835251350228</v>
+        <v>0.08873195410319372</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04210505032625691</v>
+        <v>0.03752652154650126</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1245338523.521983</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3311810689.918026</v>
+        <v>2594816533.809303</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1034025275756406</v>
+        <v>0.1121770414550071</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05685524631679288</v>
+        <v>0.04164674418821822</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1655905387.80675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1213857258.04333</v>
+        <v>1389545976.886209</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1462480274045892</v>
+        <v>0.1184552726141504</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03600734257163702</v>
+        <v>0.04694642603355056</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>606928663.1732577</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3965505970.039803</v>
+        <v>2575042566.33608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.130787951904179</v>
+        <v>0.1106983198656995</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02963816592016922</v>
+        <v>0.03134385542954903</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1982752955.296725</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1370096497.421473</v>
+        <v>1038157389.106676</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1118274186622819</v>
+        <v>0.1229525909913546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0199782935651361</v>
+        <v>0.02140333869465957</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>685048227.5253999</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1416035574.150586</v>
+        <v>1397267774.59814</v>
       </c>
       <c r="F26" t="n">
-        <v>0.113545687829731</v>
+        <v>0.1222106776245186</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02580540498742336</v>
+        <v>0.03290474901890302</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>708017861.0259901</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3348438224.702487</v>
+        <v>4684125182.849498</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09885340787054575</v>
+        <v>0.1354364581737101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02401571324149742</v>
+        <v>0.02246841707214451</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1674219154.841009</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3426626176.140693</v>
+        <v>2341772381.794446</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09162090677226423</v>
+        <v>0.1007575123591727</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04625990814396629</v>
+        <v>0.03819063921342356</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1713313136.317196</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4068704990.114381</v>
+        <v>5827376182.040389</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09840992240962283</v>
+        <v>0.1415143296443232</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03610614789750671</v>
+        <v>0.04418447913383412</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>100</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2034352507.101824</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2027867515.861624</v>
+        <v>1692440935.78836</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08748984826813169</v>
+        <v>0.1229428866895537</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03752420024871933</v>
+        <v>0.03392193076503894</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1013933798.535685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1204249648.221587</v>
+        <v>1026353059.163994</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07509911599934528</v>
+        <v>0.07564859874443922</v>
       </c>
       <c r="G31" t="n">
-        <v>0.052585502288956</v>
+        <v>0.04286412516503829</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>602124774.5516144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1431938149.21754</v>
+        <v>1652890095.072304</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08003095911796562</v>
+        <v>0.09059900315869049</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03853251436460265</v>
+        <v>0.03283881796385589</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>715969128.8471611</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2750384972.760076</v>
+        <v>2018315971.750685</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1360217478949951</v>
+        <v>0.1895695952076944</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04730439182990728</v>
+        <v>0.04891961972368245</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>66</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1375192503.237698</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1108495667.934034</v>
+        <v>1114153455.547841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09943664306536634</v>
+        <v>0.1190303545396386</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01799259351097629</v>
+        <v>0.02644134460707315</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>554247854.0192373</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1111279975.789034</v>
+        <v>1277142823.84866</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1010891858422673</v>
+        <v>0.09464331408827938</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03916727829827256</v>
+        <v>0.03493551809942851</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>555639982.0721978</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2240180948.838688</v>
+        <v>2220147732.34417</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228875182169718</v>
+        <v>0.117224956406028</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02340150011792347</v>
+        <v>0.0181680682833171</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1120090517.212499</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1922724374.313779</v>
+        <v>2236979966.89089</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09795338645888196</v>
+        <v>0.08641737186180092</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03976338911775336</v>
+        <v>0.04093191211963822</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60</v>
-      </c>
-      <c r="J37" t="n">
-        <v>961362203.8037113</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1685816435.054604</v>
+        <v>2132597274.425273</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0743881059282817</v>
+        <v>0.09480383975867121</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03397707052857617</v>
+        <v>0.03669757763656495</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>842908240.5222099</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1970297332.151948</v>
+        <v>1480188462.672446</v>
       </c>
       <c r="F39" t="n">
-        <v>0.187023632130583</v>
+        <v>0.1907805746674895</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03209523953572045</v>
+        <v>0.02361803919675804</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>985148665.1355448</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1418667098.857458</v>
+        <v>1388462822.430284</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1395608167030301</v>
+        <v>0.1017309324060532</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05189495010072261</v>
+        <v>0.04889010300382186</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>709333535.9822091</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2675507482.955529</v>
+        <v>2854504572.519026</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1294009106479811</v>
+        <v>0.1138828967430657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0451234842532336</v>
+        <v>0.02924771194864709</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>54</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1337753749.526858</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3700067837.758969</v>
+        <v>3269810802.704093</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09355016550916094</v>
+        <v>0.09799574910752691</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03674663431583516</v>
+        <v>0.04133024234170973</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1850033927.488979</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2806812248.696263</v>
+        <v>1874509362.403227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.179801377984617</v>
+        <v>0.1787914663943086</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02326622295074334</v>
+        <v>0.02094384250362523</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>78</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1403406142.144224</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1622582155.537292</v>
+        <v>1850237019.763025</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09227646460513327</v>
+        <v>0.06602815869152785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0348467765970135</v>
+        <v>0.03044987713969898</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>811291108.7951593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2053426821.596931</v>
+        <v>2046822487.097529</v>
       </c>
       <c r="F45" t="n">
-        <v>0.163026237218948</v>
+        <v>0.142990304829116</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03422538763990611</v>
+        <v>0.04656011891734843</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1026713407.015263</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3897762560.36678</v>
+        <v>5707967522.935417</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1429320745977926</v>
+        <v>0.1568362197588673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0438866502342265</v>
+        <v>0.04716392388253043</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>81</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1948881243.848549</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4197582677.766943</v>
+        <v>4938328986.964297</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1864410084537257</v>
+        <v>0.194032892874153</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04252891925630507</v>
+        <v>0.05286220894616543</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>61</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2098791349.207502</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3891338038.816492</v>
+        <v>3078734828.285016</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08448689022531705</v>
+        <v>0.0908324286925709</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02780238438402373</v>
+        <v>0.02995329105336935</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1945669060.106179</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1442524696.678038</v>
+        <v>1268605319.154678</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1943843705821917</v>
+        <v>0.1931126433202835</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03806088587755041</v>
+        <v>0.03016660764195856</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>721262389.2986436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3522993284.730298</v>
+        <v>2632848232.638789</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1488462005393472</v>
+        <v>0.1782470338984359</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05154451517891423</v>
+        <v>0.0385819025781038</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>77</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1761496664.968676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1192122012.190734</v>
+        <v>1256724745.179744</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1877355809566669</v>
+        <v>0.1761195543336996</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03965351996871982</v>
+        <v>0.03461717346460497</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>596061058.896892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3204111320.576365</v>
+        <v>4064051821.03041</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031175711633427</v>
+        <v>0.09422552257101884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03886250271094813</v>
+        <v>0.05782162989900618</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>93</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1602055763.599161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3157674162.759653</v>
+        <v>3160864862.826864</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1873803624512546</v>
+        <v>0.1642587500220493</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03491314843235664</v>
+        <v>0.03457594893637168</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>65</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1578837102.882883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4347753756.7981</v>
+        <v>3008733668.220572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1650977029802913</v>
+        <v>0.1071442523271423</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04442005965865808</v>
+        <v>0.0326740501278235</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2173876969.748578</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3123444455.266494</v>
+        <v>4610107888.240179</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1660011503088938</v>
+        <v>0.2049959638340682</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02784104604243135</v>
+        <v>0.0229993759362589</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1561722163.823068</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1365886530.952381</v>
+        <v>1388792430.563093</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1521870643068682</v>
+        <v>0.1645917160984287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04101120256426707</v>
+        <v>0.03919783856464043</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>682943327.5645812</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3107628512.882645</v>
+        <v>4460534041.938199</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1691537322051317</v>
+        <v>0.1583952512637845</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02767687968882998</v>
+        <v>0.02578467090648431</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1553814269.869702</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1543667379.53652</v>
+        <v>1386430865.070222</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1657028867269608</v>
+        <v>0.1933394935196163</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0325780847465269</v>
+        <v>0.03728201696351624</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>771833716.9186592</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3717721567.230559</v>
+        <v>4699045092.025702</v>
       </c>
       <c r="F59" t="n">
-        <v>0.080895366227623</v>
+        <v>0.1236045112565249</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03427640749121556</v>
+        <v>0.04173547452339839</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1858860773.171034</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3151122098.034148</v>
+        <v>3753807668.169374</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1461597644884036</v>
+        <v>0.1460561930735723</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03276592943986429</v>
+        <v>0.0206601682242809</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1575561135.205384</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2053617652.11949</v>
+        <v>3102431034.419954</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1507027150464804</v>
+        <v>0.1104324067496539</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02420755391667422</v>
+        <v>0.02091866385261485</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1026808895.76008</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1853086604.77967</v>
+        <v>1834880000.756171</v>
       </c>
       <c r="F62" t="n">
-        <v>0.194180566934349</v>
+        <v>0.1935226215021254</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04583287056087548</v>
+        <v>0.04448189481575033</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>926543338.404937</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5287354376.537384</v>
+        <v>5226672256.224307</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08601763130528672</v>
+        <v>0.09003655302703532</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04358953423942032</v>
+        <v>0.03362709065988628</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2643677193.188046</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3518485994.701671</v>
+        <v>5007039213.309565</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1429016473453532</v>
+        <v>0.1449784271231755</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02409098468727739</v>
+        <v>0.03445372132325079</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>70</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1759242999.323957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5725299445.626633</v>
+        <v>3809635843.793899</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1052781212461894</v>
+        <v>0.1440507347252183</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02476130279162653</v>
+        <v>0.02027459158436846</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>82</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2862649638.435268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4412663644.98935</v>
+        <v>3678098140.813293</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1549458252536489</v>
+        <v>0.1105875085302398</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03316751962618074</v>
+        <v>0.03508495118373236</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>66</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2206331818.172412</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3445456684.912168</v>
+        <v>2716711368.39585</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09610162335472167</v>
+        <v>0.067004666452193</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03185211366849896</v>
+        <v>0.04247951794075333</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>72</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1722728322.962662</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3847440991.585355</v>
+        <v>5148340242.941077</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1110611049185374</v>
+        <v>0.120831781737605</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04346586211103407</v>
+        <v>0.03673808588488345</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>73</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1923720482.335963</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2043546615.755497</v>
+        <v>1812009568.724689</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1464746342765755</v>
+        <v>0.1448218012925712</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04737487747811053</v>
+        <v>0.04936211838186006</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1021773318.481132</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2337543158.611728</v>
+        <v>3113490499.184248</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1032117637093721</v>
+        <v>0.100576424033316</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04248666516388711</v>
+        <v>0.04657163117398819</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1168771513.147398</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5571147544.570925</v>
+        <v>5036827188.417879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1302941558630577</v>
+        <v>0.1517473698585247</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02871624299209121</v>
+        <v>0.0207311319589147</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>83</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2785573920.654279</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2265789907.316679</v>
+        <v>2030754690.562006</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1015637129660678</v>
+        <v>0.1086717382977107</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05033557418365818</v>
+        <v>0.04676781507490682</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1132894857.092036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2911866180.457212</v>
+        <v>3223069004.653396</v>
       </c>
       <c r="F73" t="n">
-        <v>0.112726538518124</v>
+        <v>0.1051932085281106</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04402176646727577</v>
+        <v>0.05242992997529602</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>89</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1455933094.273206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2969144712.97327</v>
+        <v>3939508393.667475</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1558764925187789</v>
+        <v>0.1334783078364625</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02523865858288609</v>
+        <v>0.03020831617337858</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>77</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1484572424.561985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1623914655.943362</v>
+        <v>1758354700.998868</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1400628363679647</v>
+        <v>0.1532943568077582</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03078513276193451</v>
+        <v>0.02991253840781639</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>811957327.4012353</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4492325714.075304</v>
+        <v>3563281904.796994</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1219431532502426</v>
+        <v>0.1134763934561347</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02236697847210632</v>
+        <v>0.02986766745474917</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2246162862.411399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1677293451.721769</v>
+        <v>1521389636.751975</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1158029921754999</v>
+        <v>0.1749375070812439</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03052221488550738</v>
+        <v>0.02544462444480758</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>838646739.6940502</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4199668994.146238</v>
+        <v>3157273707.629914</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1228889069429934</v>
+        <v>0.1308410509916081</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05080232839275775</v>
+        <v>0.05500922064461802</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>79</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2099834448.473175</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1839286709.34238</v>
+        <v>1356024006.763344</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1468763486739592</v>
+        <v>0.1157674826872762</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03272841661171685</v>
+        <v>0.03592616962434847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>919643448.2247471</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4188643072.531677</v>
+        <v>3480167114.129662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08890700193910578</v>
+        <v>0.09303882029262542</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02754472192810508</v>
+        <v>0.03791949550181556</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2094321545.09924</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3719216166.827009</v>
+        <v>5200612246.799128</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125046053127652</v>
+        <v>0.1124545622999581</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02819008072115945</v>
+        <v>0.0204531477071893</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>51</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1859608036.201715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4396320752.154269</v>
+        <v>4711568259.026042</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1765907300416225</v>
+        <v>0.1864721626570193</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02634354691998012</v>
+        <v>0.02063799197139735</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>82</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2198160393.712934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2053412953.588765</v>
+        <v>1741294410.130173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1177382467151605</v>
+        <v>0.1062387239439251</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04396708505050151</v>
+        <v>0.04387913832571046</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1026706468.760876</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2601819169.591769</v>
+        <v>2086719284.926494</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115939928863231</v>
+        <v>0.1206410903704604</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04069982131652339</v>
+        <v>0.04297972696634837</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1300909501.627653</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2485211038.933366</v>
+        <v>2768585574.706904</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1174064049947466</v>
+        <v>0.1220405912510168</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05190867457877938</v>
+        <v>0.03766358505598053</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>85</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1242605522.78974</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2469837719.614931</v>
+        <v>1805028616.995066</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1391070324473186</v>
+        <v>0.147437473162187</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02132469010828016</v>
+        <v>0.02738602321771874</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1234918952.768374</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1263825218.513219</v>
+        <v>1303773690.910403</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1558608738545666</v>
+        <v>0.1657192833177517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03207315284835848</v>
+        <v>0.03581088524330938</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>631912681.1894709</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2823711470.026119</v>
+        <v>3218521853.837875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1123482330064006</v>
+        <v>0.1505580686750559</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03764367747282775</v>
+        <v>0.0377919777572547</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>89</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1411855748.018205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2698735223.505448</v>
+        <v>2722685372.316323</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1369829352158076</v>
+        <v>0.1546489200655467</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02768245454465213</v>
+        <v>0.03401441542007973</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>77</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1349367671.932822</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1314293311.450476</v>
+        <v>1598369337.284419</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1245993205474741</v>
+        <v>0.09477236374639061</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0516528001471268</v>
+        <v>0.05246859666087732</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>657146600.4350344</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1974195355.408402</v>
+        <v>1720417550.804066</v>
       </c>
       <c r="F91" t="n">
-        <v>0.172973841865038</v>
+        <v>0.1542284643995965</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04233758277538218</v>
+        <v>0.06070441853156892</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>987097653.3931295</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1888437376.57452</v>
+        <v>2292822247.885928</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09005471919444842</v>
+        <v>0.1008357707506347</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03859156236455142</v>
+        <v>0.03616937535026531</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>944218626.0165886</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4019221367.823303</v>
+        <v>4292375729.632791</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08865115256711228</v>
+        <v>0.09133705688521032</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04904134918099155</v>
+        <v>0.04396495050568907</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2009610683.283389</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1712775575.847365</v>
+        <v>2139418637.015285</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1521353885853489</v>
+        <v>0.1029672475775267</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02610816305427337</v>
+        <v>0.03441161858232735</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>856387748.9252566</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3082673948.206054</v>
+        <v>2321854177.97135</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1319425015898105</v>
+        <v>0.109597781478607</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03467805412066941</v>
+        <v>0.03835800012366417</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1541336967.78879</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1832815536.084049</v>
+        <v>1888091342.479789</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1335704454204808</v>
+        <v>0.0930132291515612</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02999808517460819</v>
+        <v>0.02890235602662495</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>916407772.849158</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4370340329.08324</v>
+        <v>3350620123.222246</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1424332001308396</v>
+        <v>0.1514531070092706</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01964051196959246</v>
+        <v>0.02605669602413023</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>74</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2185170250.68546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2421548023.504416</v>
+        <v>3890632588.211745</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09095824636052506</v>
+        <v>0.1279819126597666</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02764776780084309</v>
+        <v>0.02385503712627048</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1210773957.191795</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2321154823.145222</v>
+        <v>2363211951.970918</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1078921399726602</v>
+        <v>0.1043645918008384</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02168153412532053</v>
+        <v>0.02277125098522685</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1160577348.304772</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4764980508.393767</v>
+        <v>3474525015.516828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1581492216299998</v>
+        <v>0.1785058188238151</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02006275411045129</v>
+        <v>0.02677346673739102</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2382490385.933129</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2183294150.878891</v>
+        <v>2479102558.501532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1476174585098843</v>
+        <v>0.1963313383405155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05257145089848406</v>
+        <v>0.04906047252178201</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1091647056.555567</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_227.xlsx
+++ b/output/fit_clients/fit_round_227.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2119321774.529065</v>
+        <v>1726792001.243747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07114923549045535</v>
+        <v>0.08776448974574039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02847191217006056</v>
+        <v>0.03302094648861733</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1806376951.348503</v>
+        <v>2516564542.328012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1512979101390317</v>
+        <v>0.183690142434725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03308700129043957</v>
+        <v>0.03898458878992672</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3885396160.099461</v>
+        <v>5193824963.365447</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1292641889816556</v>
+        <v>0.1541600371195702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03076274029453685</v>
+        <v>0.03670851154800853</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3567001928.261675</v>
+        <v>3956743867.727179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09046327474921564</v>
+        <v>0.1024696632265683</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03697536292328982</v>
+        <v>0.03499315485215966</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1940945037.477863</v>
+        <v>1942848710.265388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1239621679502902</v>
+        <v>0.1455530698668889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04764236738395381</v>
+        <v>0.04598723315050739</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2043038649.405104</v>
+        <v>2170881498.465319</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0646931552523696</v>
+        <v>0.06971619675391241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03491407919665142</v>
+        <v>0.04477894310558143</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3050990671.74239</v>
+        <v>3269333086.534168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2182479229450998</v>
+        <v>0.2013343153081081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02934957831090506</v>
+        <v>0.02019706938480914</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2108377694.927574</v>
+        <v>2085269074.36477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1844168696695365</v>
+        <v>0.1777845341875191</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0328457982350453</v>
+        <v>0.03724301859472764</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4637052900.887351</v>
+        <v>4616118986.523132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1606304494853799</v>
+        <v>0.1908240126226018</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04026303354219694</v>
+        <v>0.04235246619843067</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4002762375.581573</v>
+        <v>2860490283.893477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1700835473347385</v>
+        <v>0.1278093488455494</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04127158352129503</v>
+        <v>0.03608440721816097</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2681628456.529571</v>
+        <v>2918053329.460032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1798808274556914</v>
+        <v>0.1296581352706462</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03681169518259367</v>
+        <v>0.05296363136816522</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3301561327.927683</v>
+        <v>4965083687.495771</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07819838914746553</v>
+        <v>0.06270676909318507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02447391330338272</v>
+        <v>0.02498835317773562</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3232621700.143182</v>
+        <v>3322421503.083036</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1495359700450513</v>
+        <v>0.12184376742879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04415761664441666</v>
+        <v>0.03245908991970593</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1777620253.040026</v>
+        <v>1779994042.041006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07461125506865894</v>
+        <v>0.09593613213938709</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03009347227175164</v>
+        <v>0.04957924730056697</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1870468407.327425</v>
+        <v>1956020681.985017</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1059210746359489</v>
+        <v>0.1003241844744118</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04471443452743958</v>
+        <v>0.0374274955771445</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4013235891.920822</v>
+        <v>3778579292.910031</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1082040710733594</v>
+        <v>0.1722046453741356</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04330005882054704</v>
+        <v>0.05098205227266459</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3921126091.618374</v>
+        <v>3494784241.150598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1841766954104979</v>
+        <v>0.1552594983221838</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03024227733998176</v>
+        <v>0.02496037566363515</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1282266058.820825</v>
+        <v>972595027.5903369</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1251602687215694</v>
+        <v>0.1225950047601276</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02551591242843008</v>
+        <v>0.02397654819558544</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1803371798.930598</v>
+        <v>2533146202.008799</v>
       </c>
       <c r="F20" t="n">
-        <v>0.140990009839682</v>
+        <v>0.1579285570268232</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0230903279134445</v>
+        <v>0.02822168141502664</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205749698.264831</v>
+        <v>2491019140.032424</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08873195410319372</v>
+        <v>0.08624602266066231</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03752652154650126</v>
+        <v>0.03411504677949383</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2594816533.809303</v>
+        <v>2879974911.37528</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1121770414550071</v>
+        <v>0.1173341686361023</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04164674418821822</v>
+        <v>0.05708368479588989</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1389545976.886209</v>
+        <v>1017166650.450755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1184552726141504</v>
+        <v>0.1818997055699899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04694642603355056</v>
+        <v>0.05178720855013799</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2575042566.33608</v>
+        <v>2700563048.587784</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1106983198656995</v>
+        <v>0.1289580935577324</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03134385542954903</v>
+        <v>0.02890994147555732</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1038157389.106676</v>
+        <v>1136970929.078477</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1229525909913546</v>
+        <v>0.1123423831211392</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02140333869465957</v>
+        <v>0.03031454883832064</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1397267774.59814</v>
+        <v>910601772.8832332</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222106776245186</v>
+        <v>0.1072470859143159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03290474901890302</v>
+        <v>0.02522834445095089</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4684125182.849498</v>
+        <v>3394574327.718379</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1354364581737101</v>
+        <v>0.1518336453705185</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02246841707214451</v>
+        <v>0.01886619900375763</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2341772381.794446</v>
+        <v>2387003269.071223</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1007575123591727</v>
+        <v>0.1315706786616417</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03819063921342356</v>
+        <v>0.04725859316051344</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5827376182.040389</v>
+        <v>4805165025.201683</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1415143296443232</v>
+        <v>0.10423291199493</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04418447913383412</v>
+        <v>0.04415484661502666</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1692440935.78836</v>
+        <v>1792578103.65916</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1229428866895537</v>
+        <v>0.09438492085264497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03392193076503894</v>
+        <v>0.03600033240510216</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1026353059.163994</v>
+        <v>972642686.4593434</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07564859874443922</v>
+        <v>0.1070923729269496</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04286412516503829</v>
+        <v>0.03682171940542832</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1652890095.072304</v>
+        <v>1704305069.308388</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09059900315869049</v>
+        <v>0.08620261732229891</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03283881796385589</v>
+        <v>0.03589366903776179</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2018315971.750685</v>
+        <v>2500349624.982806</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1895695952076944</v>
+        <v>0.1998655697914527</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04891961972368245</v>
+        <v>0.04483510481382738</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1114153455.547841</v>
+        <v>1052652726.419825</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1190303545396386</v>
+        <v>0.08597605643139164</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02644134460707315</v>
+        <v>0.02258065294558434</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1277142823.84866</v>
+        <v>831881882.0713669</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09464331408827938</v>
+        <v>0.07159252519837855</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03493551809942851</v>
+        <v>0.03776766947293305</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2220147732.34417</v>
+        <v>2105404568.982671</v>
       </c>
       <c r="F36" t="n">
-        <v>0.117224956406028</v>
+        <v>0.1742239977179531</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0181680682833171</v>
+        <v>0.02153652207204378</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2236979966.89089</v>
+        <v>2752963008.851005</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08641737186180092</v>
+        <v>0.09337653500534124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04093191211963822</v>
+        <v>0.02600386316693079</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2132597274.425273</v>
+        <v>1791788614.711952</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09480383975867121</v>
+        <v>0.0946241928505467</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03669757763656495</v>
+        <v>0.03803495238616041</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1480188462.672446</v>
+        <v>1596865887.867025</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907805746674895</v>
+        <v>0.147547101981995</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02361803919675804</v>
+        <v>0.03291178457571167</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1388462822.430284</v>
+        <v>1168804083.682786</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1017309324060532</v>
+        <v>0.1293690673503644</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04889010300382186</v>
+        <v>0.05513538151416832</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2854504572.519026</v>
+        <v>2334928012.292349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1138828967430657</v>
+        <v>0.1608316821721759</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02924771194864709</v>
+        <v>0.03326369057115922</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3269810802.704093</v>
+        <v>4125138754.870368</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09799574910752691</v>
+        <v>0.09007197817462592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04133024234170973</v>
+        <v>0.04633575060840418</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1874509362.403227</v>
+        <v>2119329502.969556</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1787914663943086</v>
+        <v>0.141006770647504</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02094384250362523</v>
+        <v>0.0191246512817889</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1850237019.763025</v>
+        <v>2201012580.760866</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06602815869152785</v>
+        <v>0.09615627256105759</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03044987713969898</v>
+        <v>0.0360952744430019</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2046822487.097529</v>
+        <v>1693185686.047468</v>
       </c>
       <c r="F45" t="n">
-        <v>0.142990304829116</v>
+        <v>0.1598855485369272</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04656011891734843</v>
+        <v>0.05388686217352209</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5707967522.935417</v>
+        <v>4955304076.080689</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1568362197588673</v>
+        <v>0.1448025901619741</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04716392388253043</v>
+        <v>0.056408090144733</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4938328986.964297</v>
+        <v>3552174915.110014</v>
       </c>
       <c r="F47" t="n">
-        <v>0.194032892874153</v>
+        <v>0.1780953661597889</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05286220894616543</v>
+        <v>0.05008021257893611</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3078734828.285016</v>
+        <v>2961782892.990757</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0908324286925709</v>
+        <v>0.09153583945686689</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02995329105336935</v>
+        <v>0.03117038268979798</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1268605319.154678</v>
+        <v>1326937377.972147</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1931126433202835</v>
+        <v>0.1287842751826768</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03016660764195856</v>
+        <v>0.04154718993330961</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2632848232.638789</v>
+        <v>3470887995.425654</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1782470338984359</v>
+        <v>0.1093333794554378</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0385819025781038</v>
+        <v>0.04061778882060214</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1256724745.179744</v>
+        <v>1430221819.408788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1761195543336996</v>
+        <v>0.1507149007715338</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03461717346460497</v>
+        <v>0.03840183010008867</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4064051821.03041</v>
+        <v>4367991910.167622</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09422552257101884</v>
+        <v>0.08517784534063402</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05782162989900618</v>
+        <v>0.0491868030998624</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3160864862.826864</v>
+        <v>2927363539.655304</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1642587500220493</v>
+        <v>0.1762455498600743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03457594893637168</v>
+        <v>0.02428579992096089</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3008733668.220572</v>
+        <v>3371929698.441739</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1071442523271423</v>
+        <v>0.1308922040180113</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0326740501278235</v>
+        <v>0.03418463130269418</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4610107888.240179</v>
+        <v>4138926003.012213</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2049959638340682</v>
+        <v>0.161600109439604</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0229993759362589</v>
+        <v>0.02347449539299495</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1388792430.563093</v>
+        <v>1736860960.637126</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1645917160984287</v>
+        <v>0.1102898703930688</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03919783856464043</v>
+        <v>0.0558385178746327</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4460534041.938199</v>
+        <v>2963787694.870246</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1583952512637845</v>
+        <v>0.1154121373137614</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02578467090648431</v>
+        <v>0.02499892241334945</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386430865.070222</v>
+        <v>1165797038.795276</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1933394935196163</v>
+        <v>0.2032622853580462</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03728201696351624</v>
+        <v>0.02615279730310791</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4699045092.025702</v>
+        <v>4415246956.372523</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236045112565249</v>
+        <v>0.1079588787805491</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04173547452339839</v>
+        <v>0.03487631667190732</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3753807668.169374</v>
+        <v>2760521893.628795</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1460561930735723</v>
+        <v>0.1308491198155691</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0206601682242809</v>
+        <v>0.02118152121006767</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3102431034.419954</v>
+        <v>3279514676.951048</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1104324067496539</v>
+        <v>0.139520922838805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02091866385261485</v>
+        <v>0.02295007965579281</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1834880000.756171</v>
+        <v>1792690544.839703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1935226215021254</v>
+        <v>0.1631313658522296</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04448189481575033</v>
+        <v>0.04173833973723536</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5226672256.224307</v>
+        <v>3701570060.397697</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09003655302703532</v>
+        <v>0.1049511846102668</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03362709065988628</v>
+        <v>0.03602290921195083</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5007039213.309565</v>
+        <v>4722070879.628553</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1449784271231755</v>
+        <v>0.1403841314719695</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03445372132325079</v>
+        <v>0.02187667435101385</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3809635843.793899</v>
+        <v>4559774895.308218</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1440507347252183</v>
+        <v>0.1668495393789562</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02027459158436846</v>
+        <v>0.02145638381925445</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3678098140.813293</v>
+        <v>5578942165.896877</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1105875085302398</v>
+        <v>0.1459866650713775</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03508495118373236</v>
+        <v>0.03823038094128595</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2716711368.39585</v>
+        <v>2784639003.941234</v>
       </c>
       <c r="F67" t="n">
-        <v>0.067004666452193</v>
+        <v>0.0811037925111172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04247951794075333</v>
+        <v>0.04594406645109717</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5148340242.941077</v>
+        <v>4007931126.32881</v>
       </c>
       <c r="F68" t="n">
-        <v>0.120831781737605</v>
+        <v>0.1295838592931943</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03673808588488345</v>
+        <v>0.04676713496397052</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1812009568.724689</v>
+        <v>1707494300.997304</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1448218012925712</v>
+        <v>0.1432716895548729</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04936211838186006</v>
+        <v>0.03885948697458879</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3113490499.184248</v>
+        <v>2284086156.026656</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100576424033316</v>
+        <v>0.09665349260796272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04657163117398819</v>
+        <v>0.0315623646752374</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5036827188.417879</v>
+        <v>3811492782.769033</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1517473698585247</v>
+        <v>0.1530522735592793</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0207311319589147</v>
+        <v>0.03045687578215175</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2030754690.562006</v>
+        <v>1936078361.257615</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1086717382977107</v>
+        <v>0.09413633039690777</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04676781507490682</v>
+        <v>0.04618840657759452</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3223069004.653396</v>
+        <v>3235741831.191443</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1051932085281106</v>
+        <v>0.09122849872237739</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05242992997529602</v>
+        <v>0.0323230399469578</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3939508393.667475</v>
+        <v>3190172296.619482</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1334783078364625</v>
+        <v>0.120557549210011</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03020831617337858</v>
+        <v>0.02955666654588969</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1758354700.998868</v>
+        <v>1892056613.015168</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1532943568077582</v>
+        <v>0.1126496690521534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02991253840781639</v>
+        <v>0.0331032017206597</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3563281904.796994</v>
+        <v>5372178531.969496</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1134763934561347</v>
+        <v>0.09453933134932689</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02986766745474917</v>
+        <v>0.02394298954464909</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1521389636.751975</v>
+        <v>1497467563.831474</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1749375070812439</v>
+        <v>0.1773208279853683</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02544462444480758</v>
+        <v>0.01972544055131244</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3157273707.629914</v>
+        <v>4607564720.463403</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308410509916081</v>
+        <v>0.0943808800838187</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05500922064461802</v>
+        <v>0.04848553934912304</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1356024006.763344</v>
+        <v>1353519687.573073</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1157674826872762</v>
+        <v>0.1190750567021596</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03592616962434847</v>
+        <v>0.02577328965821251</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3480167114.129662</v>
+        <v>4154950315.694991</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09303882029262542</v>
+        <v>0.1004145636707038</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03791949550181556</v>
+        <v>0.03377702746653521</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5200612246.799128</v>
+        <v>4824044421.701162</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124545622999581</v>
+        <v>0.1174075511617879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0204531477071893</v>
+        <v>0.03245521400892025</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4711568259.026042</v>
+        <v>3772349992.642625</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1864721626570193</v>
+        <v>0.1813892077446292</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02063799197139735</v>
+        <v>0.02866928818807775</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1741294410.130173</v>
+        <v>2247637955.917234</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1062387239439251</v>
+        <v>0.1089778317895415</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04387913832571046</v>
+        <v>0.03267372630390398</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2086719284.926494</v>
+        <v>2057804971.616335</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1206410903704604</v>
+        <v>0.09894444484435398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04297972696634837</v>
+        <v>0.05247116241010565</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2768585574.706904</v>
+        <v>3509774765.565057</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1220405912510168</v>
+        <v>0.1395509608885004</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03766358505598053</v>
+        <v>0.0487969510438459</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1805028616.995066</v>
+        <v>2170314326.874683</v>
       </c>
       <c r="F86" t="n">
-        <v>0.147437473162187</v>
+        <v>0.1362340182334545</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02738602321771874</v>
+        <v>0.02047197759751375</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1303773690.910403</v>
+        <v>1263053404.711256</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1657192833177517</v>
+        <v>0.155693234835579</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03581088524330938</v>
+        <v>0.04215970590427971</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3218521853.837875</v>
+        <v>2630540011.736112</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1505580686750559</v>
+        <v>0.118419655567553</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0377919777572547</v>
+        <v>0.03186491884559817</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2722685372.316323</v>
+        <v>3345791062.145689</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1546489200655467</v>
+        <v>0.1046081729710621</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03401441542007973</v>
+        <v>0.0295349067481937</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1598369337.284419</v>
+        <v>1749624845.621498</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09477236374639061</v>
+        <v>0.1092857648344024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05246859666087732</v>
+        <v>0.04151363233136864</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1720417550.804066</v>
+        <v>1528274713.309858</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1542284643995965</v>
+        <v>0.122279758257251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06070441853156892</v>
+        <v>0.04240059100965623</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2292822247.885928</v>
+        <v>2566037508.413547</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1008357707506347</v>
+        <v>0.09830785827545609</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03616937535026531</v>
+        <v>0.04568957881044701</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4292375729.632791</v>
+        <v>4293257852.991318</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09133705688521032</v>
+        <v>0.1001759503450788</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04396495050568907</v>
+        <v>0.04115106289282326</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2139418637.015285</v>
+        <v>1652694360.689098</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1029672475775267</v>
+        <v>0.1417029247476547</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03441161858232735</v>
+        <v>0.03033991330203041</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2321854177.97135</v>
+        <v>2184163331.067198</v>
       </c>
       <c r="F95" t="n">
-        <v>0.109597781478607</v>
+        <v>0.09885986923018002</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03835800012366417</v>
+        <v>0.04933076981759886</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1888091342.479789</v>
+        <v>2061678842.121225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0930132291515612</v>
+        <v>0.1089934025371981</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02890235602662495</v>
+        <v>0.0461095081272503</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3350620123.222246</v>
+        <v>4077254503.187042</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1514531070092706</v>
+        <v>0.1301656798810024</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02605669602413023</v>
+        <v>0.02796738152519105</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3890632588.211745</v>
+        <v>3856671059.806474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1279819126597666</v>
+        <v>0.0966986523881915</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02385503712627048</v>
+        <v>0.02708248970640969</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2363211951.970918</v>
+        <v>3004410755.374913</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1043645918008384</v>
+        <v>0.1275251386673921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277125098522685</v>
+        <v>0.02253314225541013</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3474525015.516828</v>
+        <v>3179551752.959665</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1785058188238151</v>
+        <v>0.1434020312007468</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02677346673739102</v>
+        <v>0.02329098783813798</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2479102558.501532</v>
+        <v>2547255978.721984</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1963313383405155</v>
+        <v>0.1537956808123135</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04906047252178201</v>
+        <v>0.0440931594377663</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_227.xlsx
+++ b/output/fit_clients/fit_round_227.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1726792001.243747</v>
+        <v>1647850566.55634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08776448974574039</v>
+        <v>0.1072180142960768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03302094648861733</v>
+        <v>0.04070607850866455</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2516564542.328012</v>
+        <v>2009364670.470075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.183690142434725</v>
+        <v>0.1329670176411463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03898458878992672</v>
+        <v>0.03168309745037679</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5193824963.365447</v>
+        <v>3889479544.179909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541600371195702</v>
+        <v>0.124308954462197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03670851154800853</v>
+        <v>0.02537563450092659</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>227</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3956743867.727179</v>
+        <v>2645955247.579285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1024696632265683</v>
+        <v>0.08858858489231894</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03499315485215966</v>
+        <v>0.03115375098913501</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>94</v>
+      </c>
+      <c r="J5" t="n">
+        <v>225</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1942848710.265388</v>
+        <v>2314898458.134018</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1455530698668889</v>
+        <v>0.09021113727598268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04598723315050739</v>
+        <v>0.04173319813911591</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2170881498.465319</v>
+        <v>2479881844.705716</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06971619675391241</v>
+        <v>0.06604774173187856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04477894310558143</v>
+        <v>0.04128436462889494</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +711,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3269333086.534168</v>
+        <v>3883615676.559037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2013343153081081</v>
+        <v>0.1748547571133352</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02019706938480914</v>
+        <v>0.02659539767798136</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>64</v>
+      </c>
+      <c r="J8" t="n">
+        <v>227</v>
+      </c>
+      <c r="K8" t="n">
+        <v>113.1173785493784</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2085269074.36477</v>
+        <v>1823774427.10965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1777845341875191</v>
+        <v>0.1821041585719626</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03724301859472764</v>
+        <v>0.03467946768986555</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4616118986.523132</v>
+        <v>5731913926.424076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1908240126226018</v>
+        <v>0.1330854111632269</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04235246619843067</v>
+        <v>0.05434474500910783</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>206</v>
+      </c>
+      <c r="J10" t="n">
+        <v>227</v>
+      </c>
+      <c r="K10" t="n">
+        <v>118.938505073086</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2860490283.893477</v>
+        <v>3075185924.84861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1278093488455494</v>
+        <v>0.1504743892715112</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03608440721816097</v>
+        <v>0.0339919052822789</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2918053329.460032</v>
+        <v>3043126699.236335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1296581352706462</v>
+        <v>0.1475592092915472</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05296363136816522</v>
+        <v>0.03784856728993115</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4965083687.495771</v>
+        <v>4156759147.275604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06270676909318507</v>
+        <v>0.07868572786534922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02498835317773562</v>
+        <v>0.0311324977804562</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>115</v>
+      </c>
+      <c r="J13" t="n">
+        <v>226</v>
+      </c>
+      <c r="K13" t="n">
+        <v>111.6364973159856</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3322421503.083036</v>
+        <v>3342775266.943505</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12184376742879</v>
+        <v>0.130313726951523</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03245908991970593</v>
+        <v>0.03817148372994681</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1779994042.041006</v>
+        <v>1241452033.403318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09593613213938709</v>
+        <v>0.09024278954012288</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04957924730056697</v>
+        <v>0.03186225303689273</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1956020681.985017</v>
+        <v>1920298036.153366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1003241844744118</v>
+        <v>0.08535026703570421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0374274955771445</v>
+        <v>0.04058087294213539</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3778579292.910031</v>
+        <v>4732894344.344786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1722046453741356</v>
+        <v>0.1499869277435637</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05098205227266459</v>
+        <v>0.03510421531811962</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>109</v>
+      </c>
+      <c r="J17" t="n">
+        <v>227</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3494784241.150598</v>
+        <v>2926285883.058745</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1552594983221838</v>
+        <v>0.1404393626639918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02496037566363515</v>
+        <v>0.03378013055882347</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>972595027.5903369</v>
+        <v>1223188886.780648</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1225950047601276</v>
+        <v>0.1368531202116919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02397654819558544</v>
+        <v>0.02109818362750658</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533146202.008799</v>
+        <v>1930920789.807321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579285570268232</v>
+        <v>0.09798726796459313</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02822168141502664</v>
+        <v>0.02532815858395278</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2491019140.032424</v>
+        <v>2583613986.901569</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08624602266066231</v>
+        <v>0.07551907995573164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03411504677949383</v>
+        <v>0.03573533192081285</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2879974911.37528</v>
+        <v>2851701902.896896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1173341686361023</v>
+        <v>0.126772283236838</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05708368479588989</v>
+        <v>0.04227791208435061</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1017166650.450755</v>
+        <v>1372926909.943013</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1818997055699899</v>
+        <v>0.1525226257412385</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05178720855013799</v>
+        <v>0.05122021979148254</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2700563048.587784</v>
+        <v>2888760079.962443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1289580935577324</v>
+        <v>0.1313822779607514</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02890994147555732</v>
+        <v>0.02616341297859526</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1136970929.078477</v>
+        <v>1477827395.468063</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1123423831211392</v>
+        <v>0.1185146703393044</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03031454883832064</v>
+        <v>0.0249612789502179</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910601772.8832332</v>
+        <v>1109076985.326277</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1072470859143159</v>
+        <v>0.1244513362699512</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02522834445095089</v>
+        <v>0.02990027268135648</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3394574327.718379</v>
+        <v>3205184382.311577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1518336453705185</v>
+        <v>0.142422492612475</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01886619900375763</v>
+        <v>0.01855175115519222</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>91</v>
+      </c>
+      <c r="J27" t="n">
+        <v>226</v>
+      </c>
+      <c r="K27" t="n">
+        <v>64.94909296653223</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2387003269.071223</v>
+        <v>2346533124.359112</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1315706786616417</v>
+        <v>0.1185524977080514</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04725859316051344</v>
+        <v>0.035151371443402</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>226</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40.73225698162728</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4805165025.201683</v>
+        <v>5703492293.331569</v>
       </c>
       <c r="F29" t="n">
-        <v>0.10423291199493</v>
+        <v>0.1001409977086614</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04415484661502666</v>
+        <v>0.03163752626600355</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>216</v>
+      </c>
+      <c r="J29" t="n">
+        <v>227</v>
+      </c>
+      <c r="K29" t="n">
+        <v>120.4384312260699</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1792578103.65916</v>
+        <v>2177053555.213037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09438492085264497</v>
+        <v>0.1120303134322855</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03600033240510216</v>
+        <v>0.03014796091163464</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972642686.4593434</v>
+        <v>946822581.2040902</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1070923729269496</v>
+        <v>0.08700870094435716</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03682171940542832</v>
+        <v>0.03937974609894091</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1704305069.308388</v>
+        <v>1715583007.558754</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08620261732229891</v>
+        <v>0.08093364851961998</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03589366903776179</v>
+        <v>0.03573290377517389</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2500349624.982806</v>
+        <v>2391039820.291034</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1998655697914527</v>
+        <v>0.1337998437527617</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04483510481382738</v>
+        <v>0.04600022901520135</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1052652726.419825</v>
+        <v>1275545407.904695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08597605643139164</v>
+        <v>0.08558290185767591</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02258065294558434</v>
+        <v>0.01936793196578917</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>831881882.0713669</v>
+        <v>1144015602.552679</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07159252519837855</v>
+        <v>0.1086891381876297</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03776766947293305</v>
+        <v>0.03247857859473176</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2105404568.982671</v>
+        <v>2302698268.179002</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1742239977179531</v>
+        <v>0.1475425093296129</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02153652207204378</v>
+        <v>0.02114039351966501</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2752963008.851005</v>
+        <v>2743043425.549716</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09337653500534124</v>
+        <v>0.09864000131019693</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02600386316693079</v>
+        <v>0.03147207049377783</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1791788614.711952</v>
+        <v>1703847803.341302</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0946241928505467</v>
+        <v>0.1008253225126274</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03803495238616041</v>
+        <v>0.0245588567883819</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1596865887.867025</v>
+        <v>2020090786.277294</v>
       </c>
       <c r="F39" t="n">
-        <v>0.147547101981995</v>
+        <v>0.1870405498322386</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03291178457571167</v>
+        <v>0.02467045144752099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1168804083.682786</v>
+        <v>1774653438.020642</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1293690673503644</v>
+        <v>0.1099350933962027</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05513538151416832</v>
+        <v>0.05326716094660065</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2334928012.292349</v>
+        <v>2297204177.692695</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1608316821721759</v>
+        <v>0.1461197299082441</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03326369057115922</v>
+        <v>0.0292905120250553</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4125138754.870368</v>
+        <v>3406152190.661067</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09007197817462592</v>
+        <v>0.108395424984592</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04633575060840418</v>
+        <v>0.04531070574296071</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>92</v>
+      </c>
+      <c r="J42" t="n">
+        <v>226</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.45908100793011</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2119329502.969556</v>
+        <v>2261603350.353921</v>
       </c>
       <c r="F43" t="n">
-        <v>0.141006770647504</v>
+        <v>0.1257821894726869</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0191246512817889</v>
+        <v>0.02303952987304269</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2201012580.760866</v>
+        <v>1726601725.341609</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09615627256105759</v>
+        <v>0.08585039348652627</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0360952744430019</v>
+        <v>0.032705427857166</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1693185686.047468</v>
+        <v>2476584274.572628</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1598855485369272</v>
+        <v>0.1736661765243571</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05388686217352209</v>
+        <v>0.03731660567470366</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4955304076.080689</v>
+        <v>3805743618.428245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1448025901619741</v>
+        <v>0.1677921345520745</v>
       </c>
       <c r="G46" t="n">
-        <v>0.056408090144733</v>
+        <v>0.03881765108343722</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>131</v>
+      </c>
+      <c r="J46" t="n">
+        <v>226</v>
+      </c>
+      <c r="K46" t="n">
+        <v>106.5304457193537</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3552174915.110014</v>
+        <v>5034068630.874456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1780953661597889</v>
+        <v>0.1452955339967359</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05008021257893611</v>
+        <v>0.04444286682506783</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>102</v>
+      </c>
+      <c r="J47" t="n">
+        <v>226</v>
+      </c>
+      <c r="K47" t="n">
+        <v>91.68028818752845</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2961782892.990757</v>
+        <v>3154561236.547612</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09153583945686689</v>
+        <v>0.1053833169373324</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03117038268979798</v>
+        <v>0.03163294708646345</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>110</v>
+      </c>
+      <c r="J48" t="n">
+        <v>224</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1326937377.972147</v>
+        <v>1856214649.985089</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1287842751826768</v>
+        <v>0.1406304258437441</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04154718993330961</v>
+        <v>0.03630627524587953</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3470887995.425654</v>
+        <v>4130268332.482923</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1093333794554378</v>
+        <v>0.1251288502757712</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04061778882060214</v>
+        <v>0.05045142284943163</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>74</v>
+      </c>
+      <c r="J50" t="n">
+        <v>227</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1430221819.408788</v>
+        <v>1146623383.168064</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1507149007715338</v>
+        <v>0.1380295124958984</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03840183010008867</v>
+        <v>0.03995107298544628</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4367991910.167622</v>
+        <v>5040796828.521373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08517784534063402</v>
+        <v>0.09996810183729718</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0491868030998624</v>
+        <v>0.0602856665436674</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>150</v>
+      </c>
+      <c r="J52" t="n">
+        <v>227</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2927363539.655304</v>
+        <v>2673806647.913492</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1762455498600743</v>
+        <v>0.1732395074756354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02428579992096089</v>
+        <v>0.02998531883182572</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3371929698.441739</v>
+        <v>3896319865.6789</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1308922040180113</v>
+        <v>0.1190517147361111</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03418463130269418</v>
+        <v>0.0339074361242133</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>121</v>
+      </c>
+      <c r="J54" t="n">
+        <v>227</v>
+      </c>
+      <c r="K54" t="n">
+        <v>112.7191588267188</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4138926003.012213</v>
+        <v>4726146175.765188</v>
       </c>
       <c r="F55" t="n">
-        <v>0.161600109439604</v>
+        <v>0.1776108692021734</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02347449539299495</v>
+        <v>0.0242261568970305</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>102</v>
+      </c>
+      <c r="J55" t="n">
+        <v>226</v>
+      </c>
+      <c r="K55" t="n">
+        <v>109.0303906745461</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1736860960.637126</v>
+        <v>1515030564.194741</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1102898703930688</v>
+        <v>0.1275855492138474</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0558385178746327</v>
+        <v>0.05534197683001855</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2963787694.870246</v>
+        <v>3840322189.871272</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1154121373137614</v>
+        <v>0.1363329139281164</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02499892241334945</v>
+        <v>0.01827795494778096</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>89</v>
+      </c>
+      <c r="J57" t="n">
+        <v>226</v>
+      </c>
+      <c r="K57" t="n">
+        <v>109.0545575112108</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1165797038.795276</v>
+        <v>1179137768.947064</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2032622853580462</v>
+        <v>0.1965156226288886</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02615279730310791</v>
+        <v>0.03038456269761521</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4415246956.372523</v>
+        <v>3833607810.227009</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1079588787805491</v>
+        <v>0.1250183297591338</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03487631667190732</v>
+        <v>0.04919930348424013</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>110</v>
+      </c>
+      <c r="J59" t="n">
+        <v>226</v>
+      </c>
+      <c r="K59" t="n">
+        <v>99.07491922937724</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2760521893.628795</v>
+        <v>2356911318.151816</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1308491198155691</v>
+        <v>0.170800483713774</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02118152121006767</v>
+        <v>0.02458023530912213</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3279514676.951048</v>
+        <v>2245818591.834709</v>
       </c>
       <c r="F61" t="n">
-        <v>0.139520922838805</v>
+        <v>0.1702424704347999</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02295007965579281</v>
+        <v>0.02840747509912288</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1792690544.839703</v>
+        <v>1626792597.759405</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1631313658522296</v>
+        <v>0.1849689173444628</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04173833973723536</v>
+        <v>0.0409161778315433</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3701570060.397697</v>
+        <v>5134829185.131344</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1049511846102668</v>
+        <v>0.08043092468943688</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03602290921195083</v>
+        <v>0.02907639289371571</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>110</v>
+      </c>
+      <c r="J63" t="n">
+        <v>227</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4722070879.628553</v>
+        <v>4429547708.519985</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1403841314719695</v>
+        <v>0.1844514055437854</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02187667435101385</v>
+        <v>0.0267032408530376</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>112</v>
+      </c>
+      <c r="J64" t="n">
+        <v>226</v>
+      </c>
+      <c r="K64" t="n">
+        <v>105.9076366030621</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4559774895.308218</v>
+        <v>5272540049.095598</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1668495393789562</v>
+        <v>0.1672540804388407</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02145638381925445</v>
+        <v>0.0243602906082548</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>180</v>
+      </c>
+      <c r="J65" t="n">
+        <v>227</v>
+      </c>
+      <c r="K65" t="n">
+        <v>113.8234120812208</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5578942165.896877</v>
+        <v>3474578742.204461</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1459866650713775</v>
+        <v>0.1554815965826736</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03823038094128595</v>
+        <v>0.03755980501288205</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>112</v>
+      </c>
+      <c r="J66" t="n">
+        <v>226</v>
+      </c>
+      <c r="K66" t="n">
+        <v>79.74904775923891</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2802,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2784639003.941234</v>
+        <v>2566352506.660548</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0811037925111172</v>
+        <v>0.0933750692114354</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04594406645109717</v>
+        <v>0.04687128421539676</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="n">
+        <v>53.15754627045141</v>
       </c>
     </row>
     <row r="68">
@@ -2334,17 +2845,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4007931126.32881</v>
+        <v>4110463217.705593</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1295838592931943</v>
+        <v>0.1337007087320844</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04676713496397052</v>
+        <v>0.04340572957971078</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>114</v>
+      </c>
+      <c r="J68" t="n">
+        <v>227</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1707494300.997304</v>
+        <v>1865614004.632772</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1432716895548729</v>
+        <v>0.1510014914978603</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03885948697458879</v>
+        <v>0.059938752462287</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2284086156.026656</v>
+        <v>3507342115.321971</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09665349260796272</v>
+        <v>0.0763018476978564</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0315623646752374</v>
+        <v>0.03126789648765667</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34</v>
+      </c>
+      <c r="J70" t="n">
+        <v>227</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3811492782.769033</v>
+        <v>3870764220.985423</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1530522735592793</v>
+        <v>0.172269251150717</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03045687578215175</v>
+        <v>0.0337487836160842</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>173</v>
+      </c>
+      <c r="J71" t="n">
+        <v>227</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1936078361.257615</v>
+        <v>2144547305.399729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09413633039690777</v>
+        <v>0.08069844984043954</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04618840657759452</v>
+        <v>0.05024079337413796</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3235741831.191443</v>
+        <v>2262345450.35743</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09122849872237739</v>
+        <v>0.08299057275014513</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0323230399469578</v>
+        <v>0.03825204275866869</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3190172296.619482</v>
+        <v>3256657810.462417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.120557549210011</v>
+        <v>0.1276517095346414</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02955666654588969</v>
+        <v>0.02975189245966393</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>65</v>
+      </c>
+      <c r="J74" t="n">
+        <v>227</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1892056613.015168</v>
+        <v>1627155422.995851</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1126496690521534</v>
+        <v>0.1452955417633937</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0331032017206597</v>
+        <v>0.0320444425530625</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5372178531.969496</v>
+        <v>3752291055.512097</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09453933134932689</v>
+        <v>0.1049957386897495</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02394298954464909</v>
+        <v>0.02341494755193483</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>105</v>
+      </c>
+      <c r="J76" t="n">
+        <v>226</v>
+      </c>
+      <c r="K76" t="n">
+        <v>90.79888960796698</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1497467563.831474</v>
+        <v>1925749984.864934</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1773208279853683</v>
+        <v>0.1436141891554158</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01972544055131244</v>
+        <v>0.03042848230478485</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3197,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4607564720.463403</v>
+        <v>4314825158.732736</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0943808800838187</v>
+        <v>0.1208961580160109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04848553934912304</v>
+        <v>0.0412660340904274</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>114</v>
+      </c>
+      <c r="J78" t="n">
+        <v>226</v>
+      </c>
+      <c r="K78" t="n">
+        <v>111.9254975386942</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1353519687.573073</v>
+        <v>1295507263.297149</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1190750567021596</v>
+        <v>0.1071357931796696</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02577328965821251</v>
+        <v>0.0370253952549635</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4154950315.694991</v>
+        <v>5074920855.061042</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1004145636707038</v>
+        <v>0.09586508384287133</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03377702746653521</v>
+        <v>0.02674046675526048</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>110</v>
+      </c>
+      <c r="J80" t="n">
+        <v>227</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4824044421.701162</v>
+        <v>4757684026.447583</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1174075511617879</v>
+        <v>0.1110167237896645</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03245521400892025</v>
+        <v>0.03198358887704759</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>104</v>
+      </c>
+      <c r="J81" t="n">
+        <v>227</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3772349992.642625</v>
+        <v>5169615011.54288</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1813892077446292</v>
+        <v>0.1558273302450362</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02866928818807775</v>
+        <v>0.02698699313753966</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>169</v>
+      </c>
+      <c r="J82" t="n">
+        <v>227</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2247637955.917234</v>
+        <v>2425346161.240368</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1089778317895415</v>
+        <v>0.1442693481683587</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03267372630390398</v>
+        <v>0.04161040480717485</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2057804971.616335</v>
+        <v>2153026247.026568</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09894444484435398</v>
+        <v>0.1100171774875559</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05247116241010565</v>
+        <v>0.04868433999695423</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3509774765.565057</v>
+        <v>2486461486.678212</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1395509608885004</v>
+        <v>0.1451493980496953</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0487969510438459</v>
+        <v>0.04591527427215458</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2170314326.874683</v>
+        <v>2722094660.154676</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1362340182334545</v>
+        <v>0.1662653845902295</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02047197759751375</v>
+        <v>0.02353513988893872</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1263053404.711256</v>
+        <v>1428445862.921117</v>
       </c>
       <c r="F87" t="n">
-        <v>0.155693234835579</v>
+        <v>0.1672335786198054</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04215970590427971</v>
+        <v>0.03997042291931621</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2630540011.736112</v>
+        <v>3491773445.16419</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118419655567553</v>
+        <v>0.1646761294371355</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03186491884559817</v>
+        <v>0.03980381874320331</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>227</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3345791062.145689</v>
+        <v>2436868349.688549</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046081729710621</v>
+        <v>0.1216659948888228</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0295349067481937</v>
+        <v>0.03373247507877747</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1749624845.621498</v>
+        <v>2041780148.390152</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1092857648344024</v>
+        <v>0.09303423188207369</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04151363233136864</v>
+        <v>0.04646724122493983</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1528274713.309858</v>
+        <v>1734494965.142882</v>
       </c>
       <c r="F91" t="n">
-        <v>0.122279758257251</v>
+        <v>0.15194488829612</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04240059100965623</v>
+        <v>0.04340843064068204</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2566037508.413547</v>
+        <v>2403189305.278494</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09830785827545609</v>
+        <v>0.09886103293302879</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04568957881044701</v>
+        <v>0.0306829286081369</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4293257852.991318</v>
+        <v>3059386324.006315</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1001759503450788</v>
+        <v>0.1084513385511648</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04115106289282326</v>
+        <v>0.03300645314938452</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>101</v>
+      </c>
+      <c r="J93" t="n">
+        <v>224</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1652694360.689098</v>
+        <v>2301081365.152657</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1417029247476547</v>
+        <v>0.1240092374768189</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03033991330203041</v>
+        <v>0.02946699411168521</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2184163331.067198</v>
+        <v>2141385522.146185</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09885986923018002</v>
+        <v>0.1111948526522551</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04933076981759886</v>
+        <v>0.03895367321490194</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2061678842.121225</v>
+        <v>1585182046.515398</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1089934025371981</v>
+        <v>0.1135689977907418</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0461095081272503</v>
+        <v>0.03996589470514013</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4077254503.187042</v>
+        <v>5034696638.475948</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1301656798810024</v>
+        <v>0.1429567150950099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02796738152519105</v>
+        <v>0.02137848778649092</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>110</v>
+      </c>
+      <c r="J97" t="n">
+        <v>226</v>
+      </c>
+      <c r="K97" t="n">
+        <v>110.0641690471444</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3856671059.806474</v>
+        <v>3469514288.787429</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0966986523881915</v>
+        <v>0.1121643366221693</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02708248970640969</v>
+        <v>0.02905793004672343</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54</v>
+      </c>
+      <c r="J98" t="n">
+        <v>227</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3004410755.374913</v>
+        <v>2442191084.27368</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1275251386673921</v>
+        <v>0.1293488299970221</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02253314225541013</v>
+        <v>0.02645329039438242</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3179551752.959665</v>
+        <v>3101417627.295659</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1434020312007468</v>
+        <v>0.1688731829431877</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02329098783813798</v>
+        <v>0.024644515873747</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>95</v>
+      </c>
+      <c r="J100" t="n">
+        <v>225</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2547255978.721984</v>
+        <v>2479787267.425737</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1537956808123135</v>
+        <v>0.136698270060154</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0440931594377663</v>
+        <v>0.04545543141579994</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
